--- a/cms-server/utils/bomModel.xlsx
+++ b/cms-server/utils/bomModel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/Desktop/windows/scpc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/WebstormProjects/web-scpc-master/cms-server/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17700" windowHeight="13560"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="ELS-00351" sheetId="1" r:id="rId1"/>
@@ -25,216 +25,284 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="70">
   <si>
     <t>客户编号</t>
   </si>
   <si>
-    <t>项目联络人</t>
-  </si>
-  <si>
     <t>项目名称</t>
   </si>
   <si>
+    <t>项目下单日期</t>
+  </si>
+  <si>
+    <t>2019-07-31</t>
+  </si>
+  <si>
+    <t>交货日期</t>
+  </si>
+  <si>
+    <t>项目重要程度</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>材质</t>
+  </si>
+  <si>
+    <t>编号：JL-7.5-01(2019-08-01)-001</t>
+  </si>
+  <si>
+    <t>ELS-00351</t>
+  </si>
+  <si>
+    <t>工艺过程卡</t>
+  </si>
+  <si>
+    <t>组件</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>锡青铜</t>
+  </si>
+  <si>
+    <t>零件名称</t>
+  </si>
+  <si>
+    <t>俄罗斯测试BOM1</t>
+  </si>
+  <si>
+    <t>图号</t>
+  </si>
+  <si>
+    <t>零件数量</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>所属设备</t>
+  </si>
+  <si>
+    <t>工序内容（工艺）</t>
+  </si>
+  <si>
+    <t>额定工时(分钟/件)</t>
+  </si>
+  <si>
+    <t>总工时(分钟/件)</t>
+  </si>
+  <si>
+    <t>准备工时（分钟/件）</t>
+  </si>
+  <si>
+    <t>实际完成日期</t>
+  </si>
+  <si>
+    <t>操作者</t>
+  </si>
+  <si>
+    <t>检验</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>备料</t>
+  </si>
+  <si>
+    <t>10*10*10      1      锡青铜</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CNC</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>钳</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>车</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>标准会签：                  工艺会签：                    质量会签：                      工艺编制：李勇                   校对：</t>
+  </si>
+  <si>
+    <t>审   定：                          批   准：                     临时更改：                      更改批准：</t>
+  </si>
+  <si>
+    <t>本工艺卡片由操作者妥善保管，加工完交验后并填写工序交接时间随图纸一同转入下道工序，最终由检验负责收回备案</t>
+  </si>
+  <si>
+    <t>编号：JL-7.5-01(2019-08-01)-002</t>
+  </si>
+  <si>
+    <t>环氧棒</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10*10*10      2      环氧棒</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>注塑</t>
+  </si>
+  <si>
+    <t>编号：JL-7.5-01(2019-08-01)-003</t>
+  </si>
+  <si>
+    <t>无氧铜</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>10*10*10      1      无氧铜</t>
+  </si>
+  <si>
+    <t>编号：JL-7.5-01(2019-08-01)-004</t>
+  </si>
+  <si>
+    <t>10*10*10      1      环氧棒</t>
+  </si>
+  <si>
+    <t>加工项目BOM表---</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">项目联络人   </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>项目执行人</t>
-  </si>
-  <si>
-    <t>项目下单日期</t>
-  </si>
-  <si>
-    <t>2019-07-31</t>
-  </si>
-  <si>
-    <t>交货日期</t>
-  </si>
-  <si>
-    <t>项目重要程度</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目交货日期</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>李 勇</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称/图号</t>
+    <rPh sb="0" eb="1">
+      <t>ming'c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tu'hao</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质</t>
+    <rPh sb="0" eb="1">
+      <t>cai'zhi</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>备料尺寸</t>
+    <rPh sb="0" eb="1">
+      <t>bei'liao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chi'cun</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工工序</t>
+    <rPh sb="0" eb="1">
+      <t>jia'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'xu</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成时间</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-  </si>
-  <si>
-    <t>名称/图号</t>
-  </si>
-  <si>
-    <t>材质</t>
-  </si>
-  <si>
-    <t>备料尺寸</t>
+    <rPh sb="0" eb="1">
+      <t>xu'hao</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>加工数量</t>
-  </si>
-  <si>
-    <t>加工工序</t>
+    <rPh sb="0" eb="1">
+      <t>jia'gong'shu'l</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>表面处理</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>实际完成时间</t>
-  </si>
-  <si>
-    <t>编号：JL-7.5-01(2019-08-01)-001</t>
-  </si>
-  <si>
-    <t>ELS-00351</t>
-  </si>
-  <si>
-    <t>工艺过程卡</t>
-  </si>
-  <si>
-    <t>组件</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>锡青铜</t>
-  </si>
-  <si>
-    <t>零件名称</t>
-  </si>
-  <si>
-    <t>俄罗斯测试BOM1</t>
-  </si>
-  <si>
-    <t>图号</t>
-  </si>
-  <si>
-    <t>零件数量</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>所属设备</t>
-  </si>
-  <si>
-    <t>工序内容（工艺）</t>
-  </si>
-  <si>
-    <t>额定工时(分钟/件)</t>
-  </si>
-  <si>
-    <t>总工时(分钟/件)</t>
-  </si>
-  <si>
-    <t>准备工时（分钟/件）</t>
-  </si>
-  <si>
-    <t>实际完成日期</t>
-  </si>
-  <si>
-    <t>操作者</t>
-  </si>
-  <si>
-    <t>检验</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>备料</t>
-  </si>
-  <si>
-    <t>10*10*10      1      锡青铜</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>CNC</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>钳</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>车</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>标准会签：                  工艺会签：                    质量会签：                      工艺编制：李勇                   校对：</t>
-  </si>
-  <si>
-    <t>审   定：                          批   准：                     临时更改：                      更改批准：</t>
-  </si>
-  <si>
-    <t>本工艺卡片由操作者妥善保管，加工完交验后并填写工序交接时间随图纸一同转入下道工序，最终由检验负责收回备案</t>
-  </si>
-  <si>
-    <t>编号：JL-7.5-01(2019-08-01)-002</t>
-  </si>
-  <si>
-    <t>环氧棒</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10*10*10      2      环氧棒</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>注塑</t>
-  </si>
-  <si>
-    <t>编号：JL-7.5-01(2019-08-01)-003</t>
-  </si>
-  <si>
-    <t>无氧铜</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>10*10*10      1      无氧铜</t>
-  </si>
-  <si>
-    <t>编号：JL-7.5-01(2019-08-01)-004</t>
-  </si>
-  <si>
-    <t>10*10*10      1      环氧棒</t>
-  </si>
-  <si>
-    <t>加工项目BOM表--</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <rPh sb="0" eb="1">
+      <t>biao'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color indexed="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -292,6 +360,35 @@
       <sz val="9"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -308,12 +405,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -337,16 +434,123 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="8"/>
       </left>
-      <right style="thick">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thick">
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -355,65 +559,134 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,154 +965,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
+      <c r="G7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -861,263 +1168,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="I3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="29"/>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1129,8 +1436,8 @@
     <row r="11" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1142,8 +1449,8 @@
     <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1155,8 +1462,8 @@
     <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1168,8 +1475,8 @@
     <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1181,8 +1488,8 @@
     <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1194,8 +1501,8 @@
     <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1207,8 +1514,8 @@
     <row r="17" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1220,8 +1527,8 @@
     <row r="18" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1233,8 +1540,8 @@
     <row r="19" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1246,8 +1553,8 @@
     <row r="20" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1259,8 +1566,8 @@
     <row r="21" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1271,11 +1578,11 @@
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1284,291 +1591,291 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="A24" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="10"/>
+      <c r="A27" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="29"/>
       <c r="E35" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1580,8 +1887,8 @@
     <row r="37" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1593,8 +1900,8 @@
     <row r="38" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1606,8 +1913,8 @@
     <row r="39" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1619,8 +1926,8 @@
     <row r="40" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1632,8 +1939,8 @@
     <row r="41" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1645,8 +1952,8 @@
     <row r="42" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1658,8 +1965,8 @@
     <row r="43" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1671,8 +1978,8 @@
     <row r="44" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1684,8 +1991,8 @@
     <row r="45" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1697,8 +2004,8 @@
     <row r="46" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1710,8 +2017,8 @@
     <row r="47" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -1722,11 +2029,11 @@
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -1735,308 +2042,308 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="16" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="54" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="28"/>
     </row>
     <row r="55" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="17"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="28"/>
     </row>
     <row r="56" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="29"/>
       <c r="E58" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="13"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="2"/>
       <c r="G59" s="2"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="13"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="29"/>
       <c r="E60" s="2"/>
       <c r="G60" s="2"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="13"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="29"/>
       <c r="E61" s="2"/>
       <c r="G61" s="2"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="13"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="29"/>
       <c r="E62" s="2"/>
       <c r="G62" s="2"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="13"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="2"/>
       <c r="G63" s="2"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="13"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="2"/>
       <c r="G64" s="2"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="13"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="29"/>
       <c r="E65" s="2"/>
       <c r="G65" s="2"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="13"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="2"/>
       <c r="G66" s="2"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="13"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="2"/>
       <c r="G67" s="2"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="13"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="2"/>
       <c r="G68" s="2"/>
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="13"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="2"/>
       <c r="G69" s="2"/>
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="13"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="29"/>
       <c r="E70" s="2"/>
       <c r="G70" s="2"/>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="13"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="2"/>
       <c r="G71" s="2"/>
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="13"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="29"/>
       <c r="E72" s="2"/>
       <c r="G72" s="2"/>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="13"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="29"/>
       <c r="E73" s="2"/>
       <c r="G73" s="2"/>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B74" s="3"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2045,308 +2352,308 @@
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
+      <c r="A75" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
+      <c r="A76" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10" t="s">
+      <c r="A79" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="28"/>
+    </row>
+    <row r="81" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="35"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="10"/>
-    </row>
-    <row r="80" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I80" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J80" s="9"/>
-    </row>
-    <row r="81" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="15"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J81" s="9"/>
+      <c r="J81" s="28"/>
     </row>
     <row r="82" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F82" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="29"/>
       <c r="E84" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="13"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="29"/>
       <c r="E85" s="2"/>
       <c r="G85" s="2"/>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="13"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="2"/>
       <c r="G86" s="2"/>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="13"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="29"/>
       <c r="E87" s="2"/>
       <c r="G87" s="2"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="13"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="2"/>
       <c r="G88" s="2"/>
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="13"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="29"/>
       <c r="E89" s="2"/>
       <c r="G89" s="2"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="13"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="2"/>
       <c r="G90" s="2"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="13"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="2"/>
       <c r="G91" s="2"/>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="13"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="29"/>
       <c r="E92" s="2"/>
       <c r="G92" s="2"/>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="13"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="2"/>
       <c r="G93" s="2"/>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="13"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="2"/>
       <c r="G94" s="2"/>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="13"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="2"/>
       <c r="G95" s="2"/>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="13"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="29"/>
       <c r="E96" s="2"/>
       <c r="G96" s="2"/>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="13"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="29"/>
       <c r="E97" s="2"/>
       <c r="G97" s="2"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="13"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="29"/>
       <c r="E98" s="2"/>
       <c r="G98" s="2"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="13"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="29"/>
       <c r="E99" s="2"/>
       <c r="G99" s="2"/>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B100" s="3"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -2355,108 +2662,55 @@
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
+      <c r="A101" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
     </row>
     <row r="102" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
+      <c r="A102" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:C29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A54:C55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A101:J101"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
@@ -2468,28 +2722,81 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="I80:J80"/>
     <mergeCell ref="I81:J81"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A101:J101"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A54:C55"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A28:C29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.95" right="0.95" top="1" bottom="0.6" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
